--- a/cs561 exam1 student list.xlsx
+++ b/cs561 exam1 student list.xlsx
@@ -1,40 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20373"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\我的云端硬盘\share\小可爱\cs561 exam1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fany\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E0167D8-BAE2-4038-A212-3EDCA40C16E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C4F5060-3482-422B-B55C-FFE9874B1DEC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{81732ECD-B49A-644C-AA66-DEB784B1106D}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" xr2:uid="{81732ECD-B49A-644C-AA66-DEB784B1106D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
     <t>Brent</t>
   </si>
@@ -228,18 +219,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Zhenghui</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Navapat</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Donghuan</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -250,24 +233,27 @@
   <si>
     <t>Zhuofan</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zhenghui</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -281,7 +267,7 @@
     <font>
       <sz val="20"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -295,9 +281,16 @@
     <font>
       <sz val="20"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -323,7 +316,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -339,9 +332,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -357,7 +353,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -655,22 +651,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2586237F-147E-5D4A-9ED2-2ABC62A943DD}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.84375" defaultRowHeight="25" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="26.25"/>
   <cols>
-    <col min="1" max="1" width="25.84375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="25.875" style="2" customWidth="1"/>
     <col min="2" max="2" width="24" style="2" customWidth="1"/>
-    <col min="3" max="3" width="21.3046875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="34.4609375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.84375" style="2"/>
-    <col min="6" max="6" width="22.4609375" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="10.84375" style="2"/>
+    <col min="3" max="3" width="21.25" style="2" customWidth="1"/>
+    <col min="4" max="4" width="34.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.875" style="2"/>
+    <col min="6" max="6" width="22.5" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="10.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>56</v>
       </c>
@@ -683,8 +679,12 @@
       <c r="D1" s="2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="26" x14ac:dyDescent="0.35">
+      <c r="E1" s="2">
+        <f>AVERAGE(E2:E24)</f>
+        <v>64.788888888888877</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>3736479221</v>
       </c>
@@ -700,11 +700,8 @@
       <c r="E2" s="2">
         <v>56.8</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>3743574314</v>
       </c>
@@ -718,13 +715,10 @@
         <v>3</v>
       </c>
       <c r="E3" s="2">
-        <v>60.9</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="26" x14ac:dyDescent="0.35">
+        <v>64.900000000000006</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>3747277966</v>
       </c>
@@ -732,19 +726,16 @@
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="2">
-        <v>67.599999999999994</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="26" x14ac:dyDescent="0.35">
+        <v>71.599999999999994</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>3772131053</v>
       </c>
@@ -752,7 +743,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>7</v>
@@ -761,21 +752,21 @@
         <v>74.3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="4" customFormat="1" ht="26" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" s="4" customFormat="1">
       <c r="A6" s="3">
         <v>3811153168</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="26" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>8478514293</v>
       </c>
@@ -783,7 +774,7 @@
         <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>11</v>
@@ -795,7 +786,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="26" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>3917425186</v>
       </c>
@@ -808,8 +799,11 @@
       <c r="D8" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="26" x14ac:dyDescent="0.35">
+      <c r="E8" s="2">
+        <v>50.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>3926536863</v>
       </c>
@@ -822,22 +816,25 @@
       <c r="D9" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="26" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
+      <c r="E9" s="2">
+        <v>62.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="5" customFormat="1">
+      <c r="A10" s="3">
         <v>3986364112</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="26" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>3992604351</v>
       </c>
@@ -850,8 +847,11 @@
       <c r="D11" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="26" x14ac:dyDescent="0.35">
+      <c r="E11" s="2">
+        <v>50.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>4082809473</v>
       </c>
@@ -864,8 +864,14 @@
       <c r="D12" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="26" x14ac:dyDescent="0.35">
+      <c r="E12" s="2">
+        <v>65.5</v>
+      </c>
+      <c r="F12" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>4087802514</v>
       </c>
@@ -878,8 +884,11 @@
       <c r="D13" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="26" x14ac:dyDescent="0.35">
+      <c r="E13" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>4092610491</v>
       </c>
@@ -892,8 +901,11 @@
       <c r="D14" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="26" x14ac:dyDescent="0.35">
+      <c r="E14" s="2">
+        <v>52.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>4094503744</v>
       </c>
@@ -906,8 +918,14 @@
       <c r="D15" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="26" x14ac:dyDescent="0.35">
+      <c r="E15" s="2">
+        <v>60.3</v>
+      </c>
+      <c r="F15" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1">
         <v>4104865359</v>
       </c>
@@ -920,8 +938,14 @@
       <c r="D16" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="26" x14ac:dyDescent="0.35">
+      <c r="E16" s="2">
+        <v>87.5</v>
+      </c>
+      <c r="F16" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1">
         <v>4107154245</v>
       </c>
@@ -934,8 +958,14 @@
       <c r="D17" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="26" x14ac:dyDescent="0.35">
+      <c r="E17" s="2">
+        <v>63.5</v>
+      </c>
+      <c r="F17" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1">
         <v>4111493677</v>
       </c>
@@ -948,8 +978,14 @@
       <c r="D18" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="26" x14ac:dyDescent="0.35">
+      <c r="E18" s="2">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="F18" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1">
         <v>4126907945</v>
       </c>
@@ -962,8 +998,11 @@
       <c r="D19" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="26" x14ac:dyDescent="0.35">
+      <c r="E19" s="2">
+        <v>84.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1">
         <v>4131703163</v>
       </c>
@@ -976,20 +1015,26 @@
       <c r="D20" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="26" x14ac:dyDescent="0.35">
+      <c r="E20" s="2">
+        <v>77.2</v>
+      </c>
+      <c r="F20" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="1:4" ht="26" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="1:4" ht="26" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6">
       <c r="A23" s="1">
         <v>2782282372</v>
       </c>
@@ -1002,18 +1047,21 @@
       <c r="D23" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="26" x14ac:dyDescent="0.35">
-      <c r="A24" s="1">
+      <c r="E23" s="2">
+        <v>69.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" s="5" customFormat="1">
+      <c r="A24" s="3">
         <v>4752535581</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="3" t="s">
         <v>55</v>
       </c>
     </row>

--- a/cs561 exam1 student list.xlsx
+++ b/cs561 exam1 student list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fany\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C4F5060-3482-422B-B55C-FFE9874B1DEC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F83CB7E-B6FF-44D7-B90D-73E8FD0E60C1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" xr2:uid="{81732ECD-B49A-644C-AA66-DEB784B1106D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="72">
   <si>
     <t>Brent</t>
   </si>
@@ -231,11 +231,25 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Zhenghui</t>
+  </si>
+  <si>
     <t>Zhuofan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Zhenghui</t>
+  </si>
+  <si>
+    <t>先赋值M，暂时算的0分</t>
+  </si>
+  <si>
+    <t>最先赋值M？？？其他tv之间条件缺失，暂时算0</t>
+  </si>
+  <si>
+    <t>格式不对，其他还存在同时赋值两个变量和条件缺失，暂时算0</t>
+  </si>
+  <si>
+    <t>格式不对，先赋值M</t>
+  </si>
+  <si>
+    <t>先赋值p，tv随便赋值，暂时算的0分</t>
   </si>
 </sst>
 </file>
@@ -649,10 +663,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2586237F-147E-5D4A-9ED2-2ABC62A943DD}">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="26.25"/>
@@ -662,11 +676,11 @@
     <col min="3" max="3" width="21.25" style="2" customWidth="1"/>
     <col min="4" max="4" width="34.5" style="2" customWidth="1"/>
     <col min="5" max="5" width="10.875" style="2"/>
-    <col min="6" max="6" width="22.5" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.375" style="2" customWidth="1"/>
     <col min="7" max="16384" width="10.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>56</v>
       </c>
@@ -681,10 +695,10 @@
       </c>
       <c r="E1" s="2">
         <f>AVERAGE(E2:E24)</f>
-        <v>64.788888888888877</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>62.122222222222213</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>3736479221</v>
       </c>
@@ -701,7 +715,7 @@
         <v>56.8</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>3743574314</v>
       </c>
@@ -718,7 +732,7 @@
         <v>64.900000000000006</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>3747277966</v>
       </c>
@@ -726,7 +740,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -735,7 +749,7 @@
         <v>71.599999999999994</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>3772131053</v>
       </c>
@@ -752,7 +766,7 @@
         <v>74.3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="4" customFormat="1">
+    <row r="6" spans="1:7" s="4" customFormat="1">
       <c r="A6" s="3">
         <v>3811153168</v>
       </c>
@@ -766,7 +780,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>8478514293</v>
       </c>
@@ -774,19 +788,22 @@
         <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E7" s="2">
-        <v>60.2</v>
+        <v>50.2</v>
       </c>
       <c r="F7" s="2">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1">
         <v>3917425186</v>
       </c>
@@ -803,7 +820,7 @@
         <v>50.4</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:7">
       <c r="A9" s="1">
         <v>3926536863</v>
       </c>
@@ -820,7 +837,7 @@
         <v>62.4</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="5" customFormat="1">
+    <row r="10" spans="1:7" s="5" customFormat="1">
       <c r="A10" s="3">
         <v>3986364112</v>
       </c>
@@ -834,7 +851,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:7">
       <c r="A11" s="1">
         <v>3992604351</v>
       </c>
@@ -851,7 +868,7 @@
         <v>50.5</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:7">
       <c r="A12" s="1">
         <v>4082809473</v>
       </c>
@@ -870,8 +887,11 @@
       <c r="F12" s="2">
         <v>22</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1">
         <v>4087802514</v>
       </c>
@@ -888,7 +908,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:7">
       <c r="A14" s="1">
         <v>4092610491</v>
       </c>
@@ -905,7 +925,7 @@
         <v>52.6</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:7">
       <c r="A15" s="1">
         <v>4094503744</v>
       </c>
@@ -919,13 +939,16 @@
         <v>35</v>
       </c>
       <c r="E15" s="2">
-        <v>60.3</v>
+        <v>50.3</v>
       </c>
       <c r="F15" s="2">
         <v>22</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1">
         <v>4104865359</v>
       </c>
@@ -939,13 +962,16 @@
         <v>37</v>
       </c>
       <c r="E16" s="2">
-        <v>87.5</v>
+        <v>79.5</v>
       </c>
       <c r="F16" s="2">
         <v>22</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1">
         <v>4107154245</v>
       </c>
@@ -959,13 +985,16 @@
         <v>40</v>
       </c>
       <c r="E17" s="2">
-        <v>63.5</v>
+        <v>53.5</v>
       </c>
       <c r="F17" s="2">
         <v>22</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1">
         <v>4111493677</v>
       </c>
@@ -984,8 +1013,11 @@
       <c r="F18" s="2">
         <v>22</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1">
         <v>4126907945</v>
       </c>
@@ -1002,7 +1034,7 @@
         <v>84.2</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:7">
       <c r="A20" s="1">
         <v>4131703163</v>
       </c>
@@ -1016,25 +1048,28 @@
         <v>49</v>
       </c>
       <c r="E20" s="2">
-        <v>77.2</v>
+        <v>67.2</v>
       </c>
       <c r="F20" s="2">
         <v>22</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="G20" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:7">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:7">
       <c r="A23" s="1">
         <v>2782282372</v>
       </c>
@@ -1051,7 +1086,7 @@
         <v>69.5</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="5" customFormat="1">
+    <row r="24" spans="1:7" s="5" customFormat="1">
       <c r="A24" s="3">
         <v>4752535581</v>
       </c>
